--- a/hw-2/excel/solution.xlsx
+++ b/hw-2/excel/solution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\msc\3_felev\rockets-and-rocket-engines\repositories\hw-2-solution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\msc\3_felev\rockets-and-rocket-engines\repositories\rockets-and-rocket-engines\hw-2\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FDDCD4-1FFF-4356-B09D-3FC9D47430F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81542C8-1391-4563-8450-15952FF60E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{658F0B62-79BC-49F3-AA0C-0AD8307EEF5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{658F0B62-79BC-49F3-AA0C-0AD8307EEF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Jellemző</t>
   </si>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">    3. fokozat</t>
   </si>
   <si>
-    <t xml:space="preserve">    Hasznos teher</t>
-  </si>
-  <si>
     <t>Induló tömeg (t)</t>
   </si>
   <si>
@@ -62,22 +59,7 @@
     <t>Kiáramlási sebesség (km/s)</t>
   </si>
   <si>
-    <t>Összeg</t>
-  </si>
-  <si>
-    <t>Átlag</t>
-  </si>
-  <si>
-    <t>Göngyölített összeg</t>
-  </si>
-  <si>
-    <t>Darab</t>
-  </si>
-  <si>
     <t>Szerkezeti tömeg</t>
-  </si>
-  <si>
-    <t>Összes induló tömeg</t>
   </si>
   <si>
     <t>Z c,l</t>
@@ -178,6 +160,33 @@
   </si>
   <si>
     <t>3 fokozatú rakéta összes szerkezeti tömege (t)</t>
+  </si>
+  <si>
+    <t>m egyfok kezdeti (t)</t>
+  </si>
+  <si>
+    <t>3 fokozatú rakéta szerkezeti és hajtóanyag tömegének aránya</t>
+  </si>
+  <si>
+    <t>3 fokozatú rakéta összes hajtóanyag tömege (t)</t>
+  </si>
+  <si>
+    <t>1 fokozató rakéta hajtóanyag tömege (t)</t>
+  </si>
+  <si>
+    <t>1 fokozatú rakéta szerkezeti tömege (t)</t>
+  </si>
+  <si>
+    <t>1 fokozatú és 3 fokozatú rakéta szerkezeti tömegének aránya</t>
+  </si>
+  <si>
+    <t>Arány (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Hasznos teher (t)</t>
+  </si>
+  <si>
+    <t>Összes induló tömeg (t)</t>
   </si>
 </sst>
 </file>
@@ -210,15 +219,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -226,16 +241,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -347,16 +381,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>809879</xdr:colOff>
+      <xdr:colOff>162179</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>82</xdr:rowOff>
+      <xdr:rowOff>66757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -379,7 +413,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6905625" y="3371850"/>
+          <a:off x="6257925" y="3438525"/>
           <a:ext cx="1819529" cy="590632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -392,13 +426,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>322</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>686122</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>161972</xdr:rowOff>
     </xdr:to>
@@ -423,7 +457,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6629400" y="2076450"/>
+          <a:off x="6296025" y="2076450"/>
           <a:ext cx="2305372" cy="333422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -435,104 +469,104 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476527</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Kép 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E430FFFF-71F1-17DD-9C38-CD7C5E9ACA92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410325" y="2514600"/>
+          <a:ext cx="1981477" cy="352474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Kép 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956C8E46-7DD8-3B38-B4E3-3E6F2DAA8045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6391275" y="2971800"/>
+          <a:ext cx="1790950" cy="323895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19327</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>49</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Kép 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E430FFFF-71F1-17DD-9C38-CD7C5E9ACA92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6972300" y="2466975"/>
-          <a:ext cx="1981477" cy="352474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>181020</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Kép 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956C8E46-7DD8-3B38-B4E3-3E6F2DAA8045}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7153275" y="2867025"/>
-          <a:ext cx="1790950" cy="323895"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>838595</xdr:colOff>
+      <xdr:colOff>495695</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>85834</xdr:rowOff>
+      <xdr:rowOff>38209</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -555,7 +589,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5924550" y="4600575"/>
+          <a:off x="4562475" y="4552950"/>
           <a:ext cx="2829320" cy="781159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -573,8 +607,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457391</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>343091</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>133387</xdr:rowOff>
     </xdr:to>
@@ -617,8 +651,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>524090</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409790</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>57183</xdr:rowOff>
     </xdr:to>
@@ -656,15 +690,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9743</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171483</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476468</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28608</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -687,7 +721,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9210675" y="2752725"/>
+          <a:off x="9182100" y="2800350"/>
           <a:ext cx="1562318" cy="238158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1041,6 +1075,182 @@
         <a:xfrm>
           <a:off x="38100" y="10229850"/>
           <a:ext cx="6420746" cy="1076475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238412</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>181027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Kép 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C0FED3-4F88-72AD-A14F-6D3559889C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="11582400"/>
+          <a:ext cx="2057687" cy="371527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581218</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Kép 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5A0E4D-47C9-71AF-157C-3B88462B26A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="12153900"/>
+          <a:ext cx="1381318" cy="333422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800466</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Kép 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02255A0D-A916-611B-CF50-C47FD1CA14E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="12725400"/>
+          <a:ext cx="2619741" cy="428685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800323</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Kép 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF7DB59-34F9-E48E-1D8A-F24524ABD408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="13487400"/>
+          <a:ext cx="1600423" cy="685896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1369,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A014B63-FB49-4A35-ACB6-E00DB243E950}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,344 +1591,342 @@
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>458.9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>168.3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>50.1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>22</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <f>SUM(B5,C5,D5,F5)</f>
         <v>699.30000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>428.3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="D6" s="5">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>428.3</v>
-      </c>
-      <c r="C6">
-        <v>157.30000000000001</v>
-      </c>
-      <c r="D6">
-        <v>46.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>2.83</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>3.14</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>3.19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
         <f>1000*B7</f>
         <v>2830</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <f t="shared" ref="C8:D8" si="0">1000*C7</f>
         <v>3140</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>3190</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
         <f>B5-B6</f>
         <v>30.599999999999966</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <f t="shared" ref="C9" si="1">C5-C6</f>
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <f>D5-D6</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
         <f>H5/(C5+D5+F5+B9)</f>
         <v>2.5804428044280447</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <f>(C5+D5+F5)/(D6+F5+C9)</f>
         <v>3.0201005025125629</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <f>(D5+F5)/(F5+D9)</f>
         <v>2.8274509803921566</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5">
         <f>B8*LN(B14)</f>
         <v>2682.7296691392407</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <f>C8*LN(C14)</f>
         <v>3470.6109448056459</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <f>D8*LN(D14)</f>
         <v>3315.6081388836078</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5">
         <f>(B9+B6)/B9</f>
         <v>14.996732026143807</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <f t="shared" ref="C19:D19" si="2">(C9+C6)/C9</f>
         <v>15.3</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
+      <c r="D19" s="5">
+        <f>(D9+D6)/D9</f>
         <v>14.314285714285715</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5">
         <f>SUM(B15:D15)</f>
         <v>9468.9487528284953</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5">
         <v>465.11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
         <v>45.95</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5">
         <f>RADIANS(B25)</f>
         <v>0.80197879129139449</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="5">
         <f>B23+B24*COS(B26)</f>
         <v>9792.3331537177583</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="5">
         <f>398600000000000</f>
         <v>398600000000000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="A33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="7">
         <v>6371000</v>
       </c>
       <c r="D33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="7">
+        <v>6370000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="3">
-        <v>6370000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="B36" s="7">
         <f>SQRT(B32/B34)</f>
         <v>7910.4088572496685</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3">
+      <c r="A37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="7">
         <f>(B27*B27)/(B36*B36)</f>
         <v>1.5324083124434467</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="3">
+      <c r="A39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="7">
         <f>B34/(2-B37)</f>
         <v>13622996.664647881</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3">
+      <c r="A40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7">
         <f>SQRT(B37*(B37-2)*COS(RADIANS(0))^2 + 1)</f>
         <v>0.53240831244344666</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="3">
+      <c r="A41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="7">
         <f>B39*(1+B40)</f>
         <v>20875993.329295762</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="3">
+      <c r="A42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="7">
         <f>B41-B34</f>
         <v>14505993.329295762</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="3">
+      <c r="A43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="7">
         <f>B42/1000</f>
         <v>14505.993329295761</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,67 +1940,135 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59">
+      <c r="A59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="5">
         <f>B27</f>
         <v>9792.3331537177583</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60">
+      <c r="A60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="5">
         <v>3.19</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61">
+      <c r="A61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="5">
         <f>B60*1000</f>
         <v>3190</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63">
+      <c r="A63" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="5">
         <f>EXP(B59/B61)</f>
         <v>21.535374602108114</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B64">
+      <c r="A64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="5">
         <f>B14*C14*D14</f>
         <v>22.034881396345742</v>
       </c>
     </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+    </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66">
+      <c r="A66" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="5">
         <f>B9+C9+D9</f>
         <v>45.099999999999966</v>
       </c>
     </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="5">
+        <f>B6+C6+D6</f>
+        <v>632.20000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="5">
+        <f>B63*F5</f>
+        <v>473.77824124637851</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="5">
+        <f>B66/B67</f>
+        <v>7.1338184118949641E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="5">
+        <f>(B68-F5)/(1+B70)</f>
+        <v>421.69526667054561</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="5">
+        <f>B68-F5-B71</f>
+        <v>30.082974575832907</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="5">
+        <f>B72/B66</f>
+        <v>0.66702826110494295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="5">
+        <f>B74*100</f>
+        <v>66.7028261104943</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>